--- a/datasets/Corsi.xlsx
+++ b/datasets/Corsi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FedeMiscia/Documents/Università/Magistrale/II Anno/Data Science/ProgettiNostri/Chatbot_tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\UNIVPM - Magistrale\Data Science\chatbot_federico\Chatbot Fede\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E081CD-A4FB-4950-B13E-B781D1A1F5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="500" windowWidth="12960" windowHeight="15500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,21 +23,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +45,9 @@
     <t>Semestre</t>
   </si>
   <si>
+    <t>Tipologia</t>
+  </si>
+  <si>
     <t>CFU</t>
   </si>
   <si>
@@ -74,6 +69,9 @@
     <t>II</t>
   </si>
   <si>
+    <t>(S)</t>
+  </si>
+  <si>
     <t>MAT/02</t>
   </si>
   <si>
@@ -89,6 +87,9 @@
     <t>I</t>
   </si>
   <si>
+    <t>(O)</t>
+  </si>
+  <si>
     <t>MAT/03</t>
   </si>
   <si>
@@ -110,18 +111,12 @@
     <t>3I117</t>
   </si>
   <si>
-    <t>Analisi Matematica I</t>
-  </si>
-  <si>
     <t>Il corso ha l’obiettivo di fornire conoscenze teoriche, metodologiche e applicative dell’Analisi Matematica allo scopo di acquisire criteri, modalità e limiti di applicazione dei metodi matematici a problemi reali. In particolare l’insegnamento si propone di fornire allo studente le conoscenze degli elementi base del calcolo differenziale e di teoria dell’integrazione per funzioni di una variabile e le varie applicazioni.</t>
   </si>
   <si>
     <t>3I118</t>
   </si>
   <si>
-    <t>Analisi Matematica II</t>
-  </si>
-  <si>
     <t>Attraverso la conoscenza degli elementi di base del calcolo differenziale e integrale per funzioni di più variabili e lo studio di metodi risolutivi per equazioni differenziali ordinarie, si forniranno agli studenti gli strumenti matematici utilizzati nelle applicazioni dell’ingegneria.</t>
   </si>
   <si>
@@ -230,9 +225,6 @@
     <t>3I152</t>
   </si>
   <si>
-    <t>Fisica Generale I</t>
-  </si>
-  <si>
     <t>FIS/01</t>
   </si>
   <si>
@@ -240,9 +232,6 @@
   </si>
   <si>
     <t>3I134</t>
-  </si>
-  <si>
-    <t>Fisica Generale II</t>
   </si>
   <si>
     <t>L’insegnamento fornisce agli studenti le basi del metodo sperimentale, proprio di ogni disciplina scientifica, e le leggi fondamentali dell’elettromagnetismo, dell’ottica e di parte della termodinamica. Esso rappresenta un passaggio formativo essenziale dalle conoscenze acquisite nella scuola media superiore a quelle dell’insegnamento universitario e le conoscenze che fornisce permettono agli studenti di acquisire gli elementi necessari per un approccio scientifico all’analisi dei problemi ingegneristici.</t>
@@ -597,11 +586,23 @@
     <t>L'insegnamento permette agli studenti di acquisire conoscenze e competenze sulla sicurezza informatica, con particolare riferimento alla sicurezza del software fin dalla sua progettazione e realizzazione. Questo approccio comporta l’acquisizione di conoscenze e competenze sui requisiti di sicurezza, le possibili minacce e le principali tecniche di difesa che possono essere adottate da un software, sia da un punto di vista teorico che pratico. Tali conoscenze, integrando le nozioni acquisite nell'insegnamento di Project Management per l'ICT, costituiranno degli approfondimenti che dovranno arricchire la conoscenza nell'ambito della progettazione del software, in modo che lo studente acquisisca una chiara consapevolezza delle opportunità e dei rischi che le più attuali tecnologie offrono.  </t>
   </si>
+  <si>
+    <t>Analisi Matematica 1</t>
+  </si>
+  <si>
+    <t>Analisi Matematica 2</t>
+  </si>
+  <si>
+    <t>Fisica Generale 1</t>
+  </si>
+  <si>
+    <t>Fisica Generale 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,7 +675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -969,26 +970,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1013,1487 +1015,1661 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
         <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
         <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20228</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
         <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
       </c>
       <c r="H12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
         <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
       </c>
       <c r="H15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
         <v>65</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>65</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
       </c>
       <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
       </c>
       <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>51211</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>51000</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
         <v>82</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
       </c>
       <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>51212</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
       </c>
       <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
       </c>
       <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
       </c>
       <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
         <v>100</v>
       </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>51128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
       </c>
       <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
       </c>
       <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
         <v>110</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" t="s">
         <v>112</v>
       </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>114</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
       </c>
       <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
       </c>
       <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
         <v>121</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
         <v>124</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
         <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>128</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
         <v>130</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>51314</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
       </c>
       <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>135</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
         <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
         <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>144</v>
-      </c>
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
       </c>
       <c r="H43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" t="s">
-        <v>148</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>51188</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
       </c>
       <c r="H45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>51123</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
       </c>
       <c r="H46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>51219</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
         <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>157</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
       </c>
       <c r="H48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51057</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" t="s">
         <v>160</v>
       </c>
-      <c r="H49" t="s">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
         <v>162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
       </c>
       <c r="H50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51445</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51">
         <v>6</v>
       </c>
-      <c r="G51" t="s">
-        <v>49</v>
-      </c>
       <c r="H51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51004</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
       </c>
       <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
         <v>169</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>170</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
       </c>
       <c r="H53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>172</v>
-      </c>
-      <c r="B54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>173</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>9</v>
       </c>
       <c r="H54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51002</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
         <v>6</v>
       </c>
-      <c r="G55" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>51003</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56">
-        <v>9</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
       </c>
       <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
         <v>179</v>
-      </c>
-      <c r="B57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" t="s">
-        <v>180</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57">
-        <v>9</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
       </c>
       <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
         <v>182</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>183</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2504,12 +2680,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9D576185DB09B40A7186F845303D001" ma:contentTypeVersion="2" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="735cf93512f0c21eee46c16f5070fe11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f46814a2-c193-41e5-af9a-b0061fb277c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b7f3b094fb3ca08459e8edecee82d86" ns2:_="">
     <xsd:import namespace="f46814a2-c193-41e5-af9a-b0061fb277c5"/>
@@ -2641,7 +2811,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2650,16 +2820,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BEDF711-7483-48FF-9D64-4CA673045422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D669671-FB20-490E-BF50-4254A0A542A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2677,10 +2844,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A347DEF-C591-47C5-86A2-4A19D1C09B2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BEDF711-7483-48FF-9D64-4CA673045422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>